--- a/uploads/График смен 1L 2024.xlsx
+++ b/uploads/График смен 1L 2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20366"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\korusconsulting.res\korusdisk\dep-ITA\all\Комплексная ИТ поддержка\1 Line Management\График смен\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\Telegram Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A4F86A-2704-4086-9E9C-93ADCADA89D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FB52D9-8981-47D3-AE3F-EF352B213E2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10605" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10603" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Январь" sheetId="1" r:id="rId1"/>
@@ -2262,12 +2262,12 @@
       <selection activeCell="C1" sqref="C1:AF1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="4">
         <v>45292</v>
@@ -2393,7 +2393,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2429,7 +2429,7 @@
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
     </row>
-    <row r="3" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2465,7 +2465,7 @@
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
     </row>
-    <row r="4" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2501,7 +2501,7 @@
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
     </row>
-    <row r="5" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2537,7 +2537,7 @@
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
@@ -2562,17 +2562,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF563B0-8C7F-4618-B8EC-8F2E2FA28E72}">
   <dimension ref="A1:AJ44"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF18" sqref="AF18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.53515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="58" t="s">
         <v>38</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>45596</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="59"/>
       <c r="B2" s="17" t="s">
         <v>34</v>
@@ -2850,7 +2850,7 @@
         <v>чт</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="60"/>
       <c r="B3" s="17">
         <f>SUM(B4:B15)</f>
@@ -2990,7 +2990,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>65</v>
       </c>
@@ -3073,7 +3073,7 @@
       <c r="AI4" s="7"/>
       <c r="AJ4" s="7"/>
     </row>
-    <row r="5" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>62</v>
       </c>
@@ -3128,7 +3128,7 @@
       <c r="AI5" s="7"/>
       <c r="AJ5" s="7"/>
     </row>
-    <row r="6" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>66</v>
       </c>
@@ -3212,7 +3212,7 @@
       </c>
       <c r="AJ6" s="7"/>
     </row>
-    <row r="7" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>63</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>64</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>55</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>56</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
         <v>54</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>57</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>59</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
         <v>60</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
         <v>61</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="30" t="s">
         <v>67</v>
       </c>
@@ -4081,7 +4081,7 @@
       <c r="F19" s="61"/>
       <c r="G19" s="61"/>
     </row>
-    <row r="20" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="40" t="s">
         <v>51</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>45596</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A21" s="34" t="str">
         <f>A4</f>
         <v>Иванов Антон Викторович</v>
@@ -4359,7 +4359,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="36"/>
       <c r="B22" s="37" t="s">
         <v>53</v>
@@ -4495,7 +4495,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A23" s="34" t="str">
         <f>A5</f>
         <v>Ермакова Анна Вячеславовна</v>
@@ -4634,7 +4634,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="36"/>
       <c r="B24" s="37" t="s">
         <v>53</v>
@@ -4770,7 +4770,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A25" s="34" t="str">
         <f>A6</f>
         <v>Новоселов Егор Станиславовчи</v>
@@ -4909,7 +4909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="36"/>
       <c r="B26" s="37" t="s">
         <v>53</v>
@@ -5045,7 +5045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A27" s="34" t="str">
         <f>A7</f>
         <v>Масленников Даниил Андреевич</v>
@@ -5184,7 +5184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="36"/>
       <c r="B28" s="37" t="s">
         <v>53</v>
@@ -5320,7 +5320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A29" s="34" t="str">
         <f>A8</f>
         <v>Плинто Евгений Дмитриевич</v>
@@ -5459,7 +5459,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="36"/>
       <c r="B30" s="37" t="s">
         <v>53</v>
@@ -5595,7 +5595,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A31" s="44" t="str">
         <f>A9</f>
         <v>Харченко Алексей Эдуардович</v>
@@ -5734,7 +5734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="50"/>
       <c r="B32" s="51" t="s">
         <v>53</v>
@@ -5870,7 +5870,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A33" s="34" t="str">
         <f>A10</f>
         <v>Захарова Анастасия Михайловна</v>
@@ -6009,7 +6009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="36"/>
       <c r="B34" s="37" t="s">
         <v>53</v>
@@ -6145,7 +6145,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A35" s="34" t="str">
         <f>A11</f>
         <v>Худяков Владислав Вячеславович</v>
@@ -6284,7 +6284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="36"/>
       <c r="B36" s="37" t="s">
         <v>53</v>
@@ -6420,7 +6420,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A37" s="34" t="str">
         <f>A12</f>
         <v>Белан Андрей Алексеевич</v>
@@ -6559,7 +6559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="36"/>
       <c r="B38" s="37" t="s">
         <v>53</v>
@@ -6695,7 +6695,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A39" s="34" t="str">
         <f>A13</f>
         <v>Строганова Василиса Сергеевна</v>
@@ -6834,7 +6834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="36"/>
       <c r="B40" s="37" t="s">
         <v>53</v>
@@ -6970,7 +6970,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A41" s="34" t="str">
         <f>A14</f>
         <v>Хамзина Валерия Ринатовна</v>
@@ -7109,7 +7109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="36"/>
       <c r="B42" s="37" t="s">
         <v>53</v>
@@ -7245,7 +7245,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A43" s="34" t="str">
         <f>A15</f>
         <v>Низамов Радмир Рамилевич</v>
@@ -7384,7 +7384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="36"/>
       <c r="B44" s="37" t="s">
         <v>53</v>
@@ -7704,14 +7704,14 @@
       <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.15234375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="7" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="58" t="s">
         <v>38</v>
       </c>
@@ -7846,7 +7846,7 @@
       </c>
       <c r="AJ1" s="15"/>
     </row>
-    <row r="2" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="59"/>
       <c r="B2" s="17" t="s">
         <v>34</v>
@@ -7986,7 +7986,7 @@
         <v>сб</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="60"/>
       <c r="B3" s="55">
         <f>SUM(B4:B13)</f>
@@ -8126,7 +8126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>65</v>
       </c>
@@ -8211,7 +8211,7 @@
       <c r="AI4" s="7"/>
       <c r="AJ4" s="18"/>
     </row>
-    <row r="5" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>66</v>
       </c>
@@ -8294,7 +8294,7 @@
       </c>
       <c r="AJ5" s="18"/>
     </row>
-    <row r="6" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>63</v>
       </c>
@@ -8376,7 +8376,7 @@
       </c>
       <c r="AJ6" s="18"/>
     </row>
-    <row r="7" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>64</v>
       </c>
@@ -8456,7 +8456,7 @@
       <c r="AI7" s="7"/>
       <c r="AJ7" s="18"/>
     </row>
-    <row r="8" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>55</v>
       </c>
@@ -8552,7 +8552,7 @@
       <c r="AI8" s="7"/>
       <c r="AJ8" s="18"/>
     </row>
-    <row r="9" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>56</v>
       </c>
@@ -8648,7 +8648,7 @@
       <c r="AI9" s="7"/>
       <c r="AJ9" s="18"/>
     </row>
-    <row r="10" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>57</v>
       </c>
@@ -8744,7 +8744,7 @@
       <c r="AI10" s="7"/>
       <c r="AJ10" s="18"/>
     </row>
-    <row r="11" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
         <v>59</v>
       </c>
@@ -8840,7 +8840,7 @@
       <c r="AI11" s="7"/>
       <c r="AJ11" s="18"/>
     </row>
-    <row r="12" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>60</v>
       </c>
@@ -8936,7 +8936,7 @@
       <c r="AI12" s="7"/>
       <c r="AJ12" s="18"/>
     </row>
-    <row r="13" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>61</v>
       </c>
@@ -9033,7 +9033,7 @@
       <c r="AI13" s="7"/>
       <c r="AJ13" s="18"/>
     </row>
-    <row r="17" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="30" t="s">
         <v>67</v>
       </c>
@@ -9051,7 +9051,7 @@
       <c r="J17" s="62"/>
       <c r="K17" s="62"/>
     </row>
-    <row r="18" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="40" t="s">
         <v>51</v>
       </c>
@@ -9187,7 +9187,7 @@
       </c>
       <c r="AJ18" s="43"/>
     </row>
-    <row r="19" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A19" s="34" t="str">
         <f>A4</f>
         <v>Иванов Антон Викторович</v>
@@ -9323,7 +9323,7 @@
       </c>
       <c r="AJ19" s="49"/>
     </row>
-    <row r="20" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="36"/>
       <c r="B20" s="37" t="s">
         <v>53</v>
@@ -9456,7 +9456,7 @@
       </c>
       <c r="AJ20" s="39"/>
     </row>
-    <row r="21" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A21" s="34" t="str">
         <f>A5</f>
         <v>Новоселов Егор Станиславовчи</v>
@@ -9592,7 +9592,7 @@
       </c>
       <c r="AJ21" s="49"/>
     </row>
-    <row r="22" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="36"/>
       <c r="B22" s="37" t="s">
         <v>53</v>
@@ -9725,7 +9725,7 @@
       </c>
       <c r="AJ22" s="39"/>
     </row>
-    <row r="23" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A23" s="34" t="str">
         <f>A6</f>
         <v>Масленников Даниил Андреевич</v>
@@ -9864,7 +9864,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="36"/>
       <c r="B24" s="37" t="s">
         <v>53</v>
@@ -10000,7 +10000,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A25" s="34" t="str">
         <f>A7</f>
         <v>Плинто Евгений Дмитриевич</v>
@@ -10139,7 +10139,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="36"/>
       <c r="B26" s="37" t="s">
         <v>53</v>
@@ -10275,7 +10275,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A27" s="34" t="str">
         <f>A8</f>
         <v>Харченко Алексей Эдуардович</v>
@@ -10414,7 +10414,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="36"/>
       <c r="B28" s="37" t="s">
         <v>53</v>
@@ -10550,7 +10550,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A29" s="44" t="str">
         <f>A9</f>
         <v>Захарова Анастасия Михайловна</v>
@@ -10689,7 +10689,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="50"/>
       <c r="B30" s="51" t="s">
         <v>53</v>
@@ -10825,7 +10825,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A31" s="34" t="str">
         <f>A10</f>
         <v>Белан Андрей Алексеевич</v>
@@ -10964,7 +10964,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="36"/>
       <c r="B32" s="37" t="s">
         <v>53</v>
@@ -11100,7 +11100,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A33" s="34" t="str">
         <f>A11</f>
         <v>Строганова Василиса Сергеевна</v>
@@ -11239,7 +11239,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="36"/>
       <c r="B34" s="37" t="s">
         <v>53</v>
@@ -11375,7 +11375,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A35" s="34" t="str">
         <f>A12</f>
         <v>Хамзина Валерия Ринатовна</v>
@@ -11514,7 +11514,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="36"/>
       <c r="B36" s="37" t="s">
         <v>53</v>
@@ -11650,7 +11650,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A37" s="34" t="str">
         <f>A13</f>
         <v>Низамов Радмир Рамилевич</v>
@@ -11789,7 +11789,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="36"/>
       <c r="B38" s="37" t="s">
         <v>53</v>
@@ -12045,17 +12045,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47669F2F-FAE5-4B05-A935-87B4CDAF05C6}">
   <dimension ref="A1:AJ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AH8" sqref="AH8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.53515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="58" t="s">
         <v>38</v>
       </c>
@@ -12193,7 +12193,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="59"/>
       <c r="B2" s="17" t="s">
         <v>34</v>
@@ -12333,7 +12333,7 @@
         <v>вт</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="60"/>
       <c r="B3" s="17">
         <f>SUM(B4:B13)</f>
@@ -12473,7 +12473,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>65</v>
       </c>
@@ -12558,7 +12558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>66</v>
       </c>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="AJ5" s="7"/>
     </row>
-    <row r="6" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>63</v>
       </c>
@@ -12723,7 +12723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>64</v>
       </c>
@@ -12807,7 +12807,7 @@
       <c r="AI7" s="7"/>
       <c r="AJ7" s="7"/>
     </row>
-    <row r="8" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>55</v>
       </c>
@@ -12913,7 +12913,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>56</v>
       </c>
@@ -13011,7 +13011,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>57</v>
       </c>
@@ -13109,7 +13109,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
         <v>59</v>
       </c>
@@ -13207,7 +13207,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>60</v>
       </c>
@@ -13305,7 +13305,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>61</v>
       </c>
@@ -13404,7 +13404,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="30" t="s">
         <v>67</v>
       </c>
@@ -13422,7 +13422,7 @@
       <c r="J17" s="62"/>
       <c r="K17" s="62"/>
     </row>
-    <row r="18" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="40" t="s">
         <v>51</v>
       </c>
@@ -13561,7 +13561,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A19" s="34" t="str">
         <f>A4</f>
         <v>Иванов Антон Викторович</v>
@@ -13700,7 +13700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="36"/>
       <c r="B20" s="37" t="s">
         <v>53</v>
@@ -13836,7 +13836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A21" s="34" t="str">
         <f>A5</f>
         <v>Новоселов Егор Станиславовчи</v>
@@ -13975,7 +13975,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="36"/>
       <c r="B22" s="37" t="s">
         <v>53</v>
@@ -14111,7 +14111,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A23" s="34" t="str">
         <f>A6</f>
         <v>Масленников Даниил Андреевич</v>
@@ -14250,7 +14250,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="36"/>
       <c r="B24" s="37" t="s">
         <v>53</v>
@@ -14386,7 +14386,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A25" s="34" t="str">
         <f>A7</f>
         <v>Плинто Евгений Дмитриевич</v>
@@ -14525,7 +14525,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="36"/>
       <c r="B26" s="37" t="s">
         <v>53</v>
@@ -14661,7 +14661,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A27" s="34" t="str">
         <f>A8</f>
         <v>Харченко Алексей Эдуардович</v>
@@ -14800,7 +14800,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="36"/>
       <c r="B28" s="37" t="s">
         <v>53</v>
@@ -14936,7 +14936,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A29" s="44" t="str">
         <f>A9</f>
         <v>Захарова Анастасия Михайловна</v>
@@ -15075,7 +15075,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="50"/>
       <c r="B30" s="51" t="s">
         <v>53</v>
@@ -15211,7 +15211,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A31" s="34" t="str">
         <f>A10</f>
         <v>Белан Андрей Алексеевич</v>
@@ -15350,7 +15350,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="36"/>
       <c r="B32" s="37" t="s">
         <v>53</v>
@@ -15486,7 +15486,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A33" s="34" t="str">
         <f>A11</f>
         <v>Строганова Василиса Сергеевна</v>
@@ -15625,7 +15625,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="36"/>
       <c r="B34" s="37" t="s">
         <v>53</v>
@@ -15761,7 +15761,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A35" s="34" t="str">
         <f>A12</f>
         <v>Хамзина Валерия Ринатовна</v>
@@ -15900,7 +15900,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="36"/>
       <c r="B36" s="37" t="s">
         <v>53</v>
@@ -16036,7 +16036,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A37" s="34" t="str">
         <f>A13</f>
         <v>Низамов Радмир Рамилевич</v>
@@ -16175,7 +16175,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="36"/>
       <c r="B38" s="37" t="s">
         <v>53</v>
@@ -16435,12 +16435,12 @@
       <selection activeCell="AQ10" sqref="AQ10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="58" t="s">
         <v>38</v>
       </c>
@@ -16578,7 +16578,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="2" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="59"/>
       <c r="B2" s="55" t="s">
         <v>34</v>
@@ -16727,7 +16727,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="60"/>
       <c r="B3" s="55">
         <f>SUM(B4:B14)</f>
@@ -16883,7 +16883,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>65</v>
       </c>
@@ -16985,7 +16985,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>66</v>
       </c>
@@ -17085,7 +17085,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>63</v>
       </c>
@@ -17184,7 +17184,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>64</v>
       </c>
@@ -17285,7 +17285,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>55</v>
       </c>
@@ -17406,7 +17406,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>56</v>
       </c>
@@ -17521,7 +17521,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>57</v>
       </c>
@@ -17619,7 +17619,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
         <v>58</v>
       </c>
@@ -17717,7 +17717,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>59</v>
       </c>
@@ -17815,7 +17815,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>60</v>
       </c>
@@ -17913,7 +17913,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
         <v>61</v>
       </c>
@@ -18011,7 +18011,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="30" t="s">
         <v>67</v>
       </c>
@@ -18029,7 +18029,7 @@
       <c r="J18" s="62"/>
       <c r="K18" s="62"/>
     </row>
-    <row r="19" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="40" t="s">
         <v>51</v>
       </c>
@@ -18168,7 +18168,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A20" s="34" t="str">
         <f>A4</f>
         <v>Иванов Антон Викторович</v>
@@ -18307,7 +18307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="36"/>
       <c r="B21" s="37" t="s">
         <v>53</v>
@@ -18443,7 +18443,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A22" s="34" t="str">
         <f>A5</f>
         <v>Новоселов Егор Станиславовчи</v>
@@ -18582,7 +18582,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="36"/>
       <c r="B23" s="37" t="s">
         <v>53</v>
@@ -18718,7 +18718,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A24" s="34" t="str">
         <f>A6</f>
         <v>Масленников Даниил Андреевич</v>
@@ -18857,7 +18857,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="36"/>
       <c r="B25" s="37" t="s">
         <v>53</v>
@@ -18993,7 +18993,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A26" s="34" t="str">
         <f>A7</f>
         <v>Плинто Евгений Дмитриевич</v>
@@ -19132,7 +19132,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="36"/>
       <c r="B27" s="37" t="s">
         <v>53</v>
@@ -19268,7 +19268,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A28" s="34" t="str">
         <f>A8</f>
         <v>Харченко Алексей Эдуардович</v>
@@ -19407,7 +19407,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="36"/>
       <c r="B29" s="37" t="s">
         <v>53</v>
@@ -19543,7 +19543,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A30" s="44" t="str">
         <f>A9</f>
         <v>Захарова Анастасия Михайловна</v>
@@ -19682,7 +19682,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="50"/>
       <c r="B31" s="51" t="s">
         <v>53</v>
@@ -19818,7 +19818,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A32" s="34" t="str">
         <f>A10</f>
         <v>Белан Андрей Алексеевич</v>
@@ -19957,7 +19957,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="36"/>
       <c r="B33" s="37" t="s">
         <v>53</v>
@@ -20093,7 +20093,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A34" s="34" t="str">
         <f>A11</f>
         <v>Родионов Кирилл Сергеевич</v>
@@ -20232,7 +20232,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="36"/>
       <c r="B35" s="37" t="s">
         <v>53</v>
@@ -20368,7 +20368,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A36" s="34" t="str">
         <f>A12</f>
         <v>Строганова Василиса Сергеевна</v>
@@ -20507,7 +20507,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="36"/>
       <c r="B37" s="37" t="s">
         <v>53</v>
@@ -20643,7 +20643,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A38" s="34" t="str">
         <f>A13</f>
         <v>Хамзина Валерия Ринатовна</v>
@@ -20782,7 +20782,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="36"/>
       <c r="B39" s="37" t="s">
         <v>53</v>
@@ -20918,7 +20918,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A40" s="34" t="str">
         <f>A14</f>
         <v>Низамов Радмир Рамилевич</v>
@@ -21057,7 +21057,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="36"/>
       <c r="B41" s="37" t="s">
         <v>53</v>
@@ -21339,12 +21339,12 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="4">
         <v>45323</v>
@@ -21436,7 +21436,7 @@
       <c r="AE1" s="4"/>
       <c r="AF1" s="4"/>
     </row>
-    <row r="2" spans="1:32" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -21472,7 +21472,7 @@
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
     </row>
-    <row r="3" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -21508,7 +21508,7 @@
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
     </row>
-    <row r="4" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -21544,7 +21544,7 @@
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
     </row>
-    <row r="5" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -21593,12 +21593,12 @@
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="4">
         <v>45352</v>
@@ -21694,7 +21694,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -21730,7 +21730,7 @@
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
     </row>
-    <row r="3" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -21766,7 +21766,7 @@
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
     </row>
-    <row r="4" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -21802,7 +21802,7 @@
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
     </row>
-    <row r="5" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -21851,12 +21851,12 @@
       <selection activeCell="AF1" sqref="AF1:AF1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="4">
         <v>45383</v>
@@ -21950,7 +21950,7 @@
       </c>
       <c r="AF1" s="4"/>
     </row>
-    <row r="2" spans="1:32" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -21986,7 +21986,7 @@
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
     </row>
-    <row r="3" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -22022,7 +22022,7 @@
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
     </row>
-    <row r="4" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -22058,7 +22058,7 @@
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
     </row>
-    <row r="5" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -22107,12 +22107,12 @@
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="4">
         <v>45413</v>
@@ -22208,7 +22208,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -22244,7 +22244,7 @@
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
     </row>
-    <row r="3" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -22280,7 +22280,7 @@
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
     </row>
-    <row r="4" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -22316,7 +22316,7 @@
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
     </row>
-    <row r="5" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -22365,12 +22365,12 @@
       <selection activeCell="AE4" sqref="AE4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="4">
         <v>45444</v>
@@ -22464,7 +22464,7 @@
       </c>
       <c r="AF1" s="4"/>
     </row>
-    <row r="2" spans="1:32" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>21</v>
       </c>
@@ -22500,7 +22500,7 @@
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
     </row>
-    <row r="3" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>23</v>
       </c>
@@ -22538,7 +22538,7 @@
       </c>
       <c r="AF3" s="2"/>
     </row>
-    <row r="4" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>24</v>
       </c>
@@ -22574,7 +22574,7 @@
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
     </row>
-    <row r="5" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>25</v>
       </c>
@@ -22629,16 +22629,16 @@
       <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.53515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="8.53515625" customWidth="1"/>
+    <col min="4" max="4" width="9.15234375" customWidth="1"/>
+    <col min="5" max="5" width="9.15234375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="58" t="s">
         <v>38</v>
       </c>
@@ -22776,7 +22776,7 @@
         <v>45504</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="59"/>
       <c r="B2" s="17" t="s">
         <v>34</v>
@@ -22913,7 +22913,7 @@
         <v>ср</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="60"/>
       <c r="B3" s="17">
         <f>SUM(B4:B20)</f>
@@ -23053,7 +23053,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>21</v>
       </c>
@@ -23154,7 +23154,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>23</v>
       </c>
@@ -23241,7 +23241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
@@ -23326,7 +23326,7 @@
       </c>
       <c r="AJ6" s="10"/>
     </row>
-    <row r="7" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
@@ -23413,7 +23413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -23503,7 +23503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>28</v>
       </c>
@@ -23601,7 +23601,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
@@ -23699,7 +23699,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
         <v>26</v>
       </c>
@@ -23797,7 +23797,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>27</v>
       </c>
@@ -23895,7 +23895,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>31</v>
       </c>
@@ -23993,7 +23993,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
@@ -24254,17 +24254,17 @@
       <selection activeCell="K15" sqref="J15:K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.53515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.3046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.3046875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="58" t="s">
         <v>38</v>
       </c>
@@ -24402,7 +24402,7 @@
         <v>45535</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="59"/>
       <c r="B2" s="24" t="s">
         <v>34</v>
@@ -24542,7 +24542,7 @@
         <v>сб</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="60"/>
       <c r="B3" s="24">
         <f>SUM(B4:B20)</f>
@@ -24682,7 +24682,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>23</v>
       </c>
@@ -24773,7 +24773,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>24</v>
       </c>
@@ -24856,7 +24856,7 @@
       <c r="AI5" s="7"/>
       <c r="AJ5" s="7"/>
     </row>
-    <row r="6" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
@@ -24942,7 +24942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
@@ -25016,7 +25016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>28</v>
       </c>
@@ -25112,7 +25112,7 @@
       </c>
       <c r="AJ8" s="7"/>
     </row>
-    <row r="9" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>29</v>
       </c>
@@ -25212,7 +25212,7 @@
       </c>
       <c r="AJ9" s="7"/>
     </row>
-    <row r="10" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>26</v>
       </c>
@@ -25310,7 +25310,7 @@
       </c>
       <c r="AJ10" s="7"/>
     </row>
-    <row r="11" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
@@ -25406,7 +25406,7 @@
       </c>
       <c r="AJ11" s="7"/>
     </row>
-    <row r="12" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
@@ -25504,7 +25504,7 @@
       </c>
       <c r="AJ12" s="7"/>
     </row>
-    <row r="13" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>32</v>
       </c>
@@ -25600,7 +25600,7 @@
       </c>
       <c r="AJ13" s="7"/>
     </row>
-    <row r="14" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
         <v>48</v>
       </c>
@@ -25676,7 +25676,7 @@
       </c>
       <c r="AJ14" s="18"/>
     </row>
-    <row r="15" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
         <v>49</v>
       </c>
@@ -25900,14 +25900,14 @@
       <selection activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.3046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="58" t="s">
         <v>38</v>
       </c>
@@ -26042,7 +26042,7 @@
       </c>
       <c r="AJ1" s="15"/>
     </row>
-    <row r="2" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="59"/>
       <c r="B2" s="26" t="s">
         <v>34</v>
@@ -26179,7 +26179,7 @@
       </c>
       <c r="AJ2" s="16"/>
     </row>
-    <row r="3" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="60"/>
       <c r="B3" s="29">
         <f>SUM(B4:B17)</f>
@@ -26316,7 +26316,7 @@
       </c>
       <c r="AJ3" s="23"/>
     </row>
-    <row r="4" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>54</v>
       </c>
@@ -26409,7 +26409,7 @@
       </c>
       <c r="AJ4" s="7"/>
     </row>
-    <row r="5" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>62</v>
       </c>
@@ -26494,7 +26494,7 @@
       <c r="AI5" s="7"/>
       <c r="AJ5" s="7"/>
     </row>
-    <row r="6" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>63</v>
       </c>
@@ -26584,7 +26584,7 @@
       </c>
       <c r="AJ6" s="7"/>
     </row>
-    <row r="7" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>64</v>
       </c>
@@ -26668,7 +26668,7 @@
       <c r="AI7" s="7"/>
       <c r="AJ7" s="33"/>
     </row>
-    <row r="8" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>65</v>
       </c>
@@ -26754,7 +26754,7 @@
       </c>
       <c r="AJ8" s="7"/>
     </row>
-    <row r="9" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>22</v>
       </c>
@@ -26811,7 +26811,7 @@
       <c r="AI9" s="7"/>
       <c r="AJ9" s="7"/>
     </row>
-    <row r="10" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>55</v>
       </c>
@@ -26905,7 +26905,7 @@
       </c>
       <c r="AJ10" s="7"/>
     </row>
-    <row r="11" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
         <v>56</v>
       </c>
@@ -26999,7 +26999,7 @@
       </c>
       <c r="AJ11" s="7"/>
     </row>
-    <row r="12" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>57</v>
       </c>
@@ -27093,7 +27093,7 @@
       </c>
       <c r="AJ12" s="7"/>
     </row>
-    <row r="13" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>58</v>
       </c>
@@ -27177,7 +27177,7 @@
       <c r="AI13" s="7"/>
       <c r="AJ13" s="7"/>
     </row>
-    <row r="14" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
         <v>59</v>
       </c>
@@ -27275,7 +27275,7 @@
       </c>
       <c r="AJ14" s="7"/>
     </row>
-    <row r="15" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
         <v>60</v>
       </c>
@@ -27369,7 +27369,7 @@
       </c>
       <c r="AJ15" s="7"/>
     </row>
-    <row r="16" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>66</v>
       </c>
@@ -27460,7 +27460,7 @@
       <c r="AI16" s="7"/>
       <c r="AJ16" s="7"/>
     </row>
-    <row r="17" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
         <v>61</v>
       </c>
@@ -27545,7 +27545,7 @@
       </c>
       <c r="AJ17" s="7"/>
     </row>
-    <row r="19" spans="1:36" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="30" t="s">
         <v>67</v>
       </c>
@@ -27559,7 +27559,7 @@
       <c r="F19" s="61"/>
       <c r="G19" s="61"/>
     </row>
-    <row r="20" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="40" t="s">
         <v>51</v>
       </c>
@@ -27695,7 +27695,7 @@
       </c>
       <c r="AJ20" s="31"/>
     </row>
-    <row r="21" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A21" s="34" t="str">
         <f>A4</f>
         <v>Худяков Владислав Вячеславович</v>
@@ -27830,7 +27830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="36"/>
       <c r="B22" s="37" t="s">
         <v>53</v>
@@ -27962,7 +27962,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A23" s="34" t="str">
         <f>A5</f>
         <v>Ермакова Анна Вячеславовна</v>
@@ -28097,7 +28097,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="36"/>
       <c r="B24" s="37" t="s">
         <v>53</v>
@@ -28229,7 +28229,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A25" s="34" t="str">
         <f>A6</f>
         <v>Масленников Даниил Андреевич</v>
@@ -28364,7 +28364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="36"/>
       <c r="B26" s="37" t="s">
         <v>53</v>
@@ -28496,7 +28496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A27" s="34" t="str">
         <f>A7</f>
         <v>Плинто Евгений Дмитриевич</v>
@@ -28631,7 +28631,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="36"/>
       <c r="B28" s="37" t="s">
         <v>53</v>
@@ -28763,7 +28763,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A29" s="34" t="str">
         <f>A8</f>
         <v>Иванов Антон Викторович</v>
@@ -28898,7 +28898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="36"/>
       <c r="B30" s="37" t="s">
         <v>53</v>
@@ -29030,7 +29030,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A31" s="44" t="str">
         <f>A9</f>
         <v>Меньшиков Анатолий</v>
@@ -29165,7 +29165,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="50"/>
       <c r="B32" s="51" t="s">
         <v>53</v>
@@ -29297,7 +29297,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A33" s="34" t="str">
         <f>A10</f>
         <v>Харченко Алексей Эдуардович</v>
@@ -29432,7 +29432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="36"/>
       <c r="B34" s="37" t="s">
         <v>53</v>
@@ -29564,7 +29564,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A35" s="34" t="str">
         <f>A11</f>
         <v>Захарова Анастасия Михайловна</v>
@@ -29699,7 +29699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="36"/>
       <c r="B36" s="37" t="s">
         <v>53</v>
@@ -29831,7 +29831,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A37" s="34" t="str">
         <f>A12</f>
         <v>Белан Андрей Алексеевич</v>
@@ -29966,7 +29966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="36"/>
       <c r="B38" s="37" t="s">
         <v>53</v>
@@ -30098,7 +30098,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A39" s="34" t="str">
         <f>A13</f>
         <v>Родионов Кирилл Сергеевич</v>
@@ -30233,7 +30233,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="36"/>
       <c r="B40" s="37" t="s">
         <v>53</v>
@@ -30365,7 +30365,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A41" s="34" t="str">
         <f>A14</f>
         <v>Строганова Василиса Сергеевна</v>
@@ -30500,7 +30500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="36"/>
       <c r="B42" s="37" t="s">
         <v>53</v>
@@ -30632,7 +30632,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A43" s="34" t="str">
         <f>A15</f>
         <v>Хамзина Валерия Ринатовна</v>
@@ -30767,7 +30767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="36"/>
       <c r="B44" s="37" t="s">
         <v>53</v>
@@ -30899,7 +30899,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A45" s="34" t="str">
         <f>A16</f>
         <v>Новоселов Егор Станиславовчи</v>
@@ -31034,7 +31034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="36"/>
       <c r="B46" s="37" t="s">
         <v>53</v>
@@ -31166,7 +31166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A47" s="34" t="str">
         <f>A17</f>
         <v>Низамов Радмир Рамилевич</v>
@@ -31301,7 +31301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" s="36"/>
       <c r="B48" s="37" t="s">
         <v>53</v>

--- a/uploads/График смен 1L 2024.xlsx
+++ b/uploads/График смен 1L 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\Telegram Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FB52D9-8981-47D3-AE3F-EF352B213E2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEB6001-9838-4A9C-A2C1-25E990B4CD8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10603" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10603" firstSheet="2" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Январь" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="Ноябрь" sheetId="10" r:id="rId11"/>
     <sheet name="Декабрь" sheetId="11" r:id="rId12"/>
     <sheet name="Шаблон" sheetId="12" r:id="rId13"/>
+    <sheet name="Сотрудники" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="84">
   <si>
     <t>Шаблон</t>
   </si>
@@ -244,6 +245,51 @@
   </si>
   <si>
     <t>Больничный</t>
+  </si>
+  <si>
+    <t>@vkhudyakov_mons</t>
+  </si>
+  <si>
+    <t>@GANrugi</t>
+  </si>
+  <si>
+    <t>@DJneko2036</t>
+  </si>
+  <si>
+    <t>@vkhamzina</t>
+  </si>
+  <si>
+    <t>@Anonimiuss</t>
+  </si>
+  <si>
+    <t>@JekaPlinto</t>
+  </si>
+  <si>
+    <t>@Eogyrt12</t>
+  </si>
+  <si>
+    <t>@welaso14</t>
+  </si>
+  <si>
+    <t>@doctorlandroph</t>
+  </si>
+  <si>
+    <t>@Demialma</t>
+  </si>
+  <si>
+    <t>@ffthrone</t>
+  </si>
+  <si>
+    <t>СВ</t>
+  </si>
+  <si>
+    <t>Пят</t>
+  </si>
+  <si>
+    <t>Дисп</t>
+  </si>
+  <si>
+    <t>Деж</t>
   </si>
 </sst>
 </file>
@@ -2562,8 +2608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF563B0-8C7F-4618-B8EC-8F2E2FA28E72}">
   <dimension ref="A1:AJ44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A15" sqref="A4:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12046,7 +12092,7 @@
   <dimension ref="A1:AJ38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AH8" sqref="AH8"/>
+      <selection activeCell="A4" sqref="A4:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -16431,7 +16477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC19FA52-6324-48AF-A2EE-1AF2F28FE0A8}">
   <dimension ref="A1:AQ41"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AQ10" sqref="AQ10"/>
     </sheetView>
   </sheetViews>
@@ -21328,6 +21374,154 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4D6D82-FE33-448F-8187-93CBFB2C558A}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="30.3046875" customWidth="1"/>
+    <col min="2" max="2" width="18.61328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/uploads/График смен 1L 2024.xlsx
+++ b/uploads/График смен 1L 2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\Telegram Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEB6001-9838-4A9C-A2C1-25E990B4CD8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F60109-DFFF-4BA9-BD29-CA3B3F73E78D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10603" firstSheet="2" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21379,10 +21379,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4D6D82-FE33-448F-8187-93CBFB2C558A}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A2:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -21391,20 +21391,12 @@
     <col min="2" max="2" width="18.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" t="s">
-        <v>83</v>
-      </c>
-    </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
       </c>
       <c r="C2" t="s">
         <v>83</v>
@@ -21412,10 +21404,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
         <v>83</v>
@@ -21423,10 +21412,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
         <v>83</v>
@@ -21434,10 +21423,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
         <v>83</v>
@@ -21445,21 +21434,21 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
         <v>80</v>
@@ -21467,21 +21456,21 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
         <v>81</v>
@@ -21489,34 +21478,45 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>76</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>82</v>
       </c>
     </row>

--- a/uploads/График смен 1L 2024.xlsx
+++ b/uploads/График смен 1L 2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\Telegram Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F60109-DFFF-4BA9-BD29-CA3B3F73E78D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E05763-2070-41E6-AF14-F942D37A82E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10603" firstSheet="2" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="87">
   <si>
     <t>Шаблон</t>
   </si>
@@ -290,6 +290,15 @@
   </si>
   <si>
     <t>Деж</t>
+  </si>
+  <si>
+    <t>Фио</t>
+  </si>
+  <si>
+    <t>Телега</t>
+  </si>
+  <si>
+    <t>Должность</t>
   </si>
 </sst>
 </file>
@@ -21379,10 +21388,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4D6D82-FE33-448F-8187-93CBFB2C558A}">
-  <dimension ref="A2:C13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -21391,6 +21400,17 @@
     <col min="2" max="2" width="18.61328125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+    </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>65</v>
